--- a/resultado.xlsx
+++ b/resultado.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="R$ #,##0.00"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +430,26 @@
           <t>DATA</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>CLASSIFICAÇÃO</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>PLANO DE CONTAS</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DESCRIÇÃO</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>MEIO DE RECEBIMENTO / PAGAMENTO</t>
+        </is>
+      </c>
       <c r="F1" t="inlineStr">
         <is>
           <t>ENTRADA</t>
@@ -434,7 +457,12 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>SAIDA</t>
+          <t>SAÍDA</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>SALDO FINAL DO PERÍODO</t>
         </is>
       </c>
     </row>
@@ -444,8 +472,28 @@
           <t>03 JAN 2026</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>4215.03</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -454,8 +502,28 @@
           <t>04 JAN 2026</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>4205.03</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -464,436 +532,4628 @@
           <t>05 JAN 2026</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>10</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>684</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>10</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>05 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>1852</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>05 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>580</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06 JAN 2026</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1848</v>
+          <t>05 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>580</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07 JAN 2026</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>80</v>
+          <t>05 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>80.45999999999999</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>05 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>INVESTIMENTO</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>APLICAÇÃO RDB</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Aplicação RDB</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>684</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>70</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>05 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>08 JAN 2026</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>3.54</v>
+          <t>05 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>580</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>478.2</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>05 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>INVESTIMENTO</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>APLICAÇÃO RDB</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Aplicação RDB</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>580</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="G13" t="n">
-        <v>548.2</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>06 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>09 JAN 2026</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>223.42</v>
+          <t>06 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>221</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>06 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10 JAN 2026</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>20</v>
+          <t>06 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>21.42</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>06 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>6.46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>11 JAN 2026</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+          <t>07 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>12 JAN 2026</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>3</v>
+          <t>07 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>3.54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>13 JAN 2026</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>224</v>
+          <t>08 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>224</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>08 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>249.63</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>08 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>14 JAN 2026</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>249.63</v>
+          <t>08 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>INVESTIMENTO</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>COMPRA FII</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Compra de FII</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>4.24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>15 JAN 2026</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>140</v>
+          <t>08 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>4.46</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="G25" t="n">
-        <v>8.99</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>08 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="F26" t="n">
-        <v>11.2</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>08 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>16 JAN 2026</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>142.21</v>
+          <t>08 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>51</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>08 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="G29" t="n">
-        <v>37</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>08 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>4.35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>17 JAN 2026</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>117.89</v>
+          <t>08 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>INVESTIMENTO</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>APLICAÇÃO RDB</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Aplicação RDB</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="G31" t="n">
-        <v>117.89</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>08 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>5.65</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>18 JAN 2026</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>70</v>
+          <t>08 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>INVESTIMENTO</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>COMPRA FII</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Compra de FII</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>425.18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>19 JAN 2026</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>83.5</v>
+          <t>08 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>9.52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20 JAN 2026</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>7</v>
+          <t>08 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="F35" t="n">
-        <v>9</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>08 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>21 JAN 2026</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>14.99</v>
+          <t>08 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>22 JAN 2026</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>10</v>
+          <t>08 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="G38" t="n">
-        <v>10</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>08 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="F39" t="n">
-        <v>7.39</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>08 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="G40" t="n">
-        <v>8.9</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>09 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>23 JAN 2026</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>200</v>
+          <t>09 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>24 JAN 2026</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>54</v>
+          <t>09 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="F43" t="n">
-        <v>63.07</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>09 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>2.51</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="G44" t="n">
-        <v>192.27</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>09 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>25 JAN 2026</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>150</v>
+          <t>09 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TRANSFERÊNCIA INTERNA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NUINVEST</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Transferência NuInvest</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>26 JAN 2026</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>63.8</v>
+          <t>09 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>89.39</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="F47" t="n">
-        <v>10.2</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>09 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>27 JAN 2026</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>93.2</v>
+          <t>09 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="F49" t="n">
-        <v>0.01</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>09 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="G50" t="n">
-        <v>10</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>09 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>28 JAN 2026</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>40</v>
+          <t>09 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>INVESTIMENTO</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>APLICAÇÃO RDB</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Aplicação RDB</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>29 JAN 2026</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>50</v>
+          <t>09 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="F53" t="n">
-        <v>60</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>09 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G53" s="1" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="G54" t="n">
-        <v>60</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>10 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>30 JAN 2026</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>19.02</v>
+          <t>10 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>10 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>10 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>10 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>11 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>11 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>12 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>12 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>12 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>12 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>179.11</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>12 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>12 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>INVESTIMENTO</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>APLICAÇÃO RDB</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Aplicação RDB</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>13 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>244.63</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>13 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>13 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>13 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>INVESTIMENTO</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>APLICAÇÃO RDB</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Aplicação RDB</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>109.63</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>13 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>14 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>14 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>14 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G74" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>14 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G75" s="1" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>15 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>TRANSFERÊNCIA INTERNA</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NUINVEST</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Transferência NuInvest</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F76" s="1" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>15 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>15 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>INVESTIMENTO</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>APLICAÇÃO RDB</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Aplicação RDB</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>15 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G79" s="1" t="n">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>15 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G80" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>16 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>16 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F82" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>16 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F83" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>16 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>16 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F85" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>16 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G86" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>16 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G87" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>16 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G88" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>17 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F89" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>17 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F90" s="1" t="n">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>17 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F91" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>17 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F92" s="1" t="n">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>17 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F93" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>17 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F94" s="1" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>17 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F95" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>17 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G96" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>17 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G97" s="1" t="n">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>17 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G98" s="1" t="n">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>17 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>INVESTIMENTO</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>APLICAÇÃO RDB</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Aplicação RDB</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G99" s="1" t="n">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>17 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G100" s="1" t="n">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>17 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G101" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>17 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G102" s="1" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>18 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F103" s="1" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>18 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G104" s="1" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>18 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G105" s="1" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>18 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G106" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>19 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F107" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>20 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F108" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>20 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F109" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>20 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>INVESTIMENTO</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>APLICAÇÃO RDB</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Aplicação RDB</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G110" s="1" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>20 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G111" s="1" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>20 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G112" s="1" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>21 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F113" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>21 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G114" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>22 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>RECEITA FINANCEIRA</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>RESGATE RDB</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Resgate RDB</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F115" s="1" t="n">
+        <v>7.39</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>22 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G116" s="1" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>23 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F117" s="1" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>23 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G118" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>23 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G119" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>23 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G120" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>24 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F121" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>24 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>INVESTIMENTO</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>COMPRA FII</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Compra de FII</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F122" s="1" t="n">
+        <v>48.07</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>24 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>INVESTIMENTO</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>COMPRA FII</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Compra de FII</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G123" s="1" t="n">
+        <v>48.07</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>24 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G124" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>24 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G125" s="1" t="n">
+        <v>74.97</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>24 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>INVESTIMENTO</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>COMPRA FII</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Compra de FII</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G126" s="1" t="n">
+        <v>19.23</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>25 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F127" s="1" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>25 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G128" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>25 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G129" s="1" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>25 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G130" s="1" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>25 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G131" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>26 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>INVESTIMENTO</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>COMPRA FII</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Compra de FII</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F132" s="1" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>26 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F133" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>26 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G134" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>26 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G135" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>26 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G136" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>26 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G137" s="1" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>26 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G138" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>27 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>TRANSFERÊNCIA INTERNA</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>NUINVEST</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Transferência NuInvest</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F139" s="1" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>27 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G140" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>28 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F141" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>28 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G142" s="1" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>28 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G143" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>28 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G144" s="1" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>29 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F145" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>29 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F146" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>29 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G147" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>29 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G148" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>30 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>TRANSFERÊNCIA INTERNA</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>NUINVEST</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Transferência NuInvest</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F149" s="1" t="n">
+        <v>19.02</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>30 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G150" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>30 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G151" s="1" t="n">
+        <v>10.03</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
           <t>31 JAN 2026</t>
         </is>
       </c>
-      <c r="G56" t="n">
-        <v>19.03</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr"/>
-      <c r="F57" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="G58" t="n">
-        <v>30</v>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F152" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>31 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F153" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>31 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>RECEITA</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>PIX RECEBIDO</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Pix Recebido</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="F154" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>31 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G155" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>31 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G156" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>31 JAN 2026</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>OUTRAS DESPESAS</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>PIX ENVIADO</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Pix Enviado</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="G157" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>SALDO FINAL DO PERÍODO:</t>
+        </is>
+      </c>
+      <c r="H159" s="1" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
